--- a/Marketing/uf.roomme.xlsx
+++ b/Marketing/uf.roomme.xlsx
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">

--- a/Marketing/uf.roomme.xlsx
+++ b/Marketing/uf.roomme.xlsx
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">

--- a/Marketing/uf.roomme.xlsx
+++ b/Marketing/uf.roomme.xlsx
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">

--- a/Marketing/uf.roomme.xlsx
+++ b/Marketing/uf.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/uf.roomme.xlsx
+++ b/Marketing/uf.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>maryygargas</t>
+          <t>eatelindio</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vetpath.ufcvm</t>
+          <t>chloeleib_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_lucyy.o</t>
+          <t>emelyyase</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_mjlr2020_</t>
+          <t>abhinavpothuri</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>justinn.graff</t>
+          <t>irinapaaezz</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>taramuthuswamy</t>
+          <t>jacobgable</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zak.herrmann</t>
+          <t>maggiegracelamb</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>qiapli</t>
+          <t>alli_3463</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>andria.glz</t>
+          <t>maria_cegarra</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ayu.bansal09_</t>
+          <t>gnsslove</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ataraberkower</t>
+          <t>alessandroanzalone1</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kate_beckerrr</t>
+          <t>_aj_ward_</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>maxg_32</t>
+          <t>ella_scarlett17</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>katecamn</t>
+          <t>beatrizelenasandoval</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kim_look19</t>
+          <t>mstsokaro</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>quannah.r</t>
+          <t>cadmusstan</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>versuspolls</t>
+          <t>rolandoangul0</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mikemagraner</t>
+          <t>jsazia</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ycumper</t>
+          <t>lodhiism</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>thou_abby</t>
+          <t>marife2003</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mmami2022</t>
+          <t>kateclarkjj</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>adalberto.ruizz</t>
+          <t>mindbodygator</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>benkb242</t>
+          <t>minapomaress</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>paytonggreene</t>
+          <t>nourjarrah1</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mishaabraham_</t>
+          <t>pranavguduru</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pausvnchez</t>
+          <t>liv_frederick27</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gen_0814</t>
+          <t>jazminnrose_</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>noraaakadas</t>
+          <t>ethan.hatcher_</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>amber.syy</t>
+          <t>omigiano</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>travisjordanhomes</t>
+          <t>camilaalmandozz</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>heartifiya</t>
+          <t>adhamessam912</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>alex.van.tran</t>
+          <t>isabellagrad</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>smills735</t>
+          <t>jose_miguel_fortunic</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>luciaccstro</t>
+          <t>celiablen22</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lala_twari</t>
+          <t>cool.vibes</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>abhinavpothuri</t>
+          <t>michelle.brisuela</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>suphabenz</t>
+          <t>rithvik_marpu</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brycetonchum</t>
+          <t>ayu.bansal09_</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>amner_montelongo</t>
+          <t>maurogs10</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>jsazia</t>
+          <t>nawalamir</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hoekage44_</t>
+          <t>zev__05</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>uf.overheard</t>
+          <t>dbesse941</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jimmy.rooney18</t>
+          <t>sanjanaa.patel</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>amyltriggs</t>
+          <t>grant_rich24</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jud_hancock</t>
+          <t>wilson.ruiz14</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kennedy.janee</t>
+          <t>pearl.smith2</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>karloreng</t>
+          <t>gen_bell13</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>evi_marie</t>
+          <t>klutch072022</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jacob.w0lker</t>
+          <t>sim.on1k</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_sofiiiip</t>
+          <t>invest_with_isobel_butler</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jordan_andersonn</t>
+          <t>leahbeasley_</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>leahbeasley_</t>
+          <t>lshehadeh_305</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>scottyseiler</t>
+          <t>bridge.uf</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kateclarkjj</t>
+          <t>zmichelle.doyle</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>antonio.balcazar1</t>
+          <t>rosie_gonzalez01</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sbw_305_</t>
+          <t>gabri.mun.86</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nikhilsanghrajka</t>
+          <t>gabrielwong06</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>crystal.zaldivar_cano</t>
+          <t>goncalves.paulosergiogoncalves</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ariellevonne_</t>
+          <t>katyaathomas</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lanexchin</t>
+          <t>lexi.fotos</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>rithvik_marpu</t>
+          <t>arturkumik</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>waverencing</t>
+          <t>tabicatg</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>karyna.fedorova</t>
+          <t>astonmartindbacy</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>taterowland5843</t>
+          <t>edward_lin_1007</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>he.ehaw</t>
+          <t>liv_r_keane</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>charlie_g_ii</t>
+          <t>dianarodr1guez</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>maria.inesc25</t>
+          <t>summer1632_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>busan.donovan</t>
+          <t>verdne</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lexi.fotos</t>
+          <t>paytonggreene</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_dar_cy</t>
+          <t>_sofiiiip</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>james.russell12</t>
+          <t>andrea.fisher7</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dpwalpole</t>
+          <t>justbeachie3</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>alli_3463</t>
+          <t>v.a.le.rie</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jacobgable</t>
+          <t>eddja099</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>nehaamajeed</t>
+          <t>mattbrittelle</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cadmusstan</t>
+          <t>avahilton22</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>l2026m_</t>
+          <t>julianaaforero</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>joshkatzz</t>
+          <t>katarinalee355</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wilson.ruiz14</t>
+          <t>mileylenzennn</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jasontenczar</t>
+          <t>giannamurdocco</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ianreitsma</t>
+          <t>2b_layth</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ohmpatel101804</t>
+          <t>sammi.cp</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jacobveeder</t>
+          <t>dpwalpole</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>michelle.brisuela</t>
+          <t>rohits30_</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>_sophiealmeida</t>
+          <t>gavxnfinxh</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jas_roberson</t>
+          <t>yorkkuo________</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jackietl12</t>
+          <t>kristidargie_rogers</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sofia.langden</t>
+          <t>sarahh_steeves</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>car_rranza</t>
+          <t>amandaa.eatonn</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eddieh245</t>
+          <t>ycumper</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jackmcnulty1</t>
+          <t>j_sezio</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>alexrubel9</t>
+          <t>bebacubeddu</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jade5233edaj</t>
+          <t>brabno</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lulugonzalez2411</t>
+          <t>kline4485</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>laragrandii_</t>
+          <t>heathermccoy90</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>maggieschricker</t>
+          <t>ecufgnv</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_clarissavega</t>
+          <t>lovely_sophenie</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>savannah__braun</t>
+          <t>madichandler_</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ellathesecond</t>
+          <t>joaquin.querol</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>maddiemarouliss</t>
+          <t>tiacaro11</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ava_lovelace</t>
+          <t>donutboyeats</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>angeli.adams</t>
+          <t>danieldugan0208_</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>gcooper_alexanda_fx</t>
+          <t>jas_roberson</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>shadygirl.shea</t>
+          <t>mrsross69</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>alex.xzheng</t>
+          <t>sofiavictoriavegaa</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ufwarrington</t>
+          <t>hebamostafa7417</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>karrph2021</t>
+          <t>sigmacao</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bryanzheng_</t>
+          <t>karloreng</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ritamae.t</t>
+          <t>emilymyersss</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>hilliarokata</t>
+          <t>jeffrey_tthomas</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>saritaxjimenez</t>
+          <t>franchescagonzalezz</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>egorovajulia77</t>
+          <t>alexis.molnar_</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>linmarkel</t>
+          <t>eddieh245</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>odis.flores</t>
+          <t>christen.uf</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>gabycoutinorealty</t>
+          <t>mayaleib</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>erichoffman20</t>
+          <t>ataraberkower</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>valen_tina.gomez</t>
+          <t>emilyd184</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>grace.chely</t>
+          <t>compa.al3</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>gabymilgram</t>
+          <t>hotsmartcoolgirl</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>jasminezsyy</t>
+          <t>end_of_ent</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>zoey_brooks4635</t>
+          <t>_audreyelyse</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>reanna_005</t>
+          <t>ryancantrell8</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cynthiachao_</t>
+          <t>giadinhbeo69</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>meaaa.q</t>
+          <t>j_kwak7</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>tommy.mckinnon</t>
+          <t>hshen004</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>chrisgo6905</t>
+          <t>bell.buja</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>pasumarthi.pranati</t>
+          <t>justagirlwholovesjeffgoldblum</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>dollzx_.peach</t>
+          <t>orozco_veronica</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>nathan_toole29</t>
+          <t>emmaleighpresley</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,707 +1748,707 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>alexiamckelligott</t>
+          <t>amari._rose</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>andrew.boozer</t>
+          <t>nj.lynk.pa</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>chasye2</t>
+          <t>julie.andersonexposito</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sydney._.smoke</t>
+          <t>stella.feliciano</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>bindukan1</t>
+          <t>maddox.mcgrath</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>j_kwak7</t>
+          <t>waverencing</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>kristidargie_rogers</t>
+          <t>rochitaaa.2</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>viviana_bedoya</t>
+          <t>alex__heard</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jtervil613</t>
+          <t>vetpath.ufcvm</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lugman999</t>
+          <t>shadygirl.shea</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>mara.adams27</t>
+          <t>shaun_harp</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>keats.205</t>
+          <t>zay.brownn</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>oliviahaley___</t>
+          <t>gabymilgram</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>kreg_18</t>
+          <t>tamzmancini</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>divyeahhhhhhhhhhhhhh</t>
+          <t>xes0xkk_</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>gnsslove</t>
+          <t>daltonreichenbach</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>eriinmonaghan</t>
+          <t>ayae1hafidi</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>b_jammin0</t>
+          <t>lexikelly.27</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>emelie.selberg</t>
+          <t>carla_holgado_</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>shaun_harp</t>
+          <t>gobyandrea</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>_dillonoconnor</t>
+          <t>monicasirop</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>michie8912</t>
+          <t>jackson_l_w</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>miriam_rios.05</t>
+          <t>eriinmonaghan</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>hectorborjas_</t>
+          <t>kimberlylaw2333</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ethan.hatcher_</t>
+          <t>chloe2o1</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>nex_oppenheimer</t>
+          <t>smills735</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>boomnaustin</t>
+          <t>bryanzheng_</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>olivia.farino</t>
+          <t>andyhgn</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>scotter63</t>
+          <t>mindyabraha</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>davidmarzouca</t>
+          <t>kerryl_ann</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>chun_aesthetic.com_</t>
+          <t>mariaa.hatzi</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ethan__reinhartt</t>
+          <t>emily.z14</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jaylynn.shindel</t>
+          <t>sarveshwp</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>c.caangay</t>
+          <t>tjlew_cpst</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>aless.i0</t>
+          <t>johnmartinez_bc</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>kendall.lotspeich</t>
+          <t>ritamae.t</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>minapomaress</t>
+          <t>brycetonchum</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>alex.rashedi</t>
+          <t>sydneygvargo</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>joshriesenberg</t>
+          <t>suzanne_hilton_</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>theresacaputo4</t>
+          <t>dharmi786</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>jonathan.hooth</t>
+          <t>quannah.r</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>joshua_00001</t>
+          <t>priyotiawal</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>zaniya3838</t>
+          <t>riverkoile</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>dellastachnik_</t>
+          <t>j3r3my.jin</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>itsmekayla.x</t>
+          <t>alex.van.tran</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ryancantrell8</t>
+          <t>hayley.brunz</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>emmaleighpresley</t>
+          <t>alexmunozzz_</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>aka_marinka</t>
+          <t>tiffhw_ang</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>xoxorelis</t>
+          <t>elvin.hzz</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>w1ll.ng</t>
+          <t>fahmeed.rokon</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>tamzmancini</t>
+          <t>elenasandoval978</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ufjmsa</t>
+          <t>micah.velazquez21</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>jabelson5</t>
+          <t>prakashsreysht</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>paoloffranceschi</t>
+          <t>valeriemunoz8</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_anagabinina</t>
+          <t>daniella__velasquez</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>melaniediaz81</t>
+          <t>victor_peytchevvv</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>why.am.i.ginger</t>
+          <t>sjjohnson16</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jennjennjane</t>
+          <t>itsmekayla.x</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>paulmahaljeremiah</t>
+          <t>alea_leanna17</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>mccorm.em</t>
+          <t>cindy_madison02</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>rharshil77</t>
+          <t>alexbochna</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>royie_rozen</t>
+          <t>maximum.chaos.fire</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>joaquin.querol</t>
+          <t>marianacorreaaaa</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>katyaathomas</t>
+          <t>zitlalyyloraa</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>abx2</t>
+          <t>carsolyn_grace</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>anushkagarge</t>
+          <t>pausvnchez</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>end_of_ent</t>
+          <t>sydney._.smoke</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sarah_jane_art_</t>
+          <t>dorm_decor_co</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alexpeterson46</t>
+          <t>korenawa39</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>a.nnaalu</t>
+          <t>mara.adams27</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>runmama7723</t>
+          <t>keats.205</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>e_bhula</t>
+          <t>dc.xam</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>folarin_35</t>
+          <t>diazninil</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>celesteserpa</t>
+          <t>dareen_abukhalil</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jkcrawford99</t>
+          <t>melaniediaz81</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>suryflores</t>
+          <t>_ashleyparedes_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>riverkoile</t>
+          <t>miriam_rios.05</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>gobyandrea</t>
+          <t>sophia.schiavone</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sammi.cp</t>
+          <t>ian.puljic</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>christookoff</t>
+          <t>saloalmeida_</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>maddox.mcgrath</t>
+          <t>mallikaxbaweja</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>karen2002mckowen</t>
+          <t>olivia.farino</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>agnes.racho</t>
+          <t>nathan_toole29</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>santa_nana</t>
+          <t>the._.nac</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>xofelicia_93</t>
+          <t>c.caangay</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>cheese_.04</t>
+          <t>raulrodriguezzr</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jasmineverbust</t>
+          <t>bolu_abegunde</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>allysa_bagot</t>
+          <t>ana.mataa</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>calvary_hope</t>
+          <t>_erinstonee</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>luisgxmezz</t>
+          <t>pujstur</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>beckyzhangg</t>
+          <t>spalma.o</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>monki_sarmiento</t>
+          <t>liza_bowen_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>milek.11</t>
+          <t>emilydykstra77</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>lex_uf_</t>
+          <t>_lucyy.o</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>aulexi2009</t>
+          <t>amber_lauren05</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>robsalvador911</t>
+          <t>jen99lin</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>madichandler_</t>
+          <t>thou_abby</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>lexikelly.27</t>
+          <t>kellyytnn</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>desmiller</t>
+          <t>zzoeyrichardss</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ava.patroni</t>
+          <t>impulsezebra</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>justin.zeltzer3</t>
+          <t>riana_greenberg</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>huonglan.nguyen.9237</t>
+          <t>carolinegearle</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>alanzerman</t>
+          <t>anapujoll</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>hanyamukati</t>
+          <t>benkb242</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>_erinstonee</t>
+          <t>karen2002mckowen</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>eladdibugatti</t>
+          <t>uf_rawfood</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>icast102</t>
+          <t>zhihanzhang77</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>rufatuf</t>
+          <t>maggieschricker</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>philhafdahl</t>
+          <t>_vivian_yiu_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jihwank23</t>
+          <t>katecamn</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>j.lodhi_</t>
+          <t>uniquenameo</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>daniel_swen</t>
+          <t>marisaponder04</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>papersrebecca</t>
+          <t>christinanijankin</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>bolu_abegunde</t>
+          <t>aemi2909</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>strom_colin</t>
+          <t>aliciaj0512</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>devyn._.p</t>
+          <t>elisajay_06</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>j9francis</t>
+          <t>m1lawilliams</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>susanmcinnis</t>
+          <t>ericlee23x3</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>pearl.smith2</t>
+          <t>kim_look19</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>anna_oop</t>
+          <t>kara_val_</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_yazminenunez_</t>
+          <t>jennifercchistik</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_aj_ward_</t>
+          <t>harrison_genesis_00</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>al_lef77</t>
+          <t>yifei_mz</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>minjoseph_kim</t>
+          <t>marcinplaz</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sydwalker7705</t>
+          <t>maryam.p2_._</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>giulvazquez</t>
+          <t>oilver.jen</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>laury_conklin</t>
+          <t>__.giuliaaa.a.__</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>diazninil</t>
+          <t>_dillonoconnor</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>brookee.madison_</t>
+          <t>cj._woods</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>luca_roda_</t>
+          <t>bilal.abouz</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>vendelabyers</t>
+          <t>amman._.minzzz</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>elenasandoval978</t>
+          <t>mariiianarocha_</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>bripnguyen</t>
+          <t>sean_disalvo7</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ufbestparties3</t>
+          <t>kenzie._r</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>avahilton22</t>
+          <t>vimal.ou</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>uftonedef</t>
+          <t>boomnaustin</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>samicapo33</t>
+          <t>sonal.jenaa</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ufshca</t>
+          <t>jackmcnulty1</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>joemay_28</t>
+          <t>nine31apts</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>grant._.cross</t>
+          <t>b_jammin0</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>lilyyykate</t>
+          <t>blackhyacinth_404</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jibruabdi</t>
+          <t>ufcbtm</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>vivens13</t>
+          <t>mi.ngxn</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>lieutenant._.harry</t>
+          <t>alex.rashedi</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>brock.moskowitz</t>
+          <t>bellav_18</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>samueelriley</t>
+          <t>slade_schuster22</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>jin.yli</t>
+          <t>viviannmayoral</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lidiacroteau21</t>
+          <t>99charlot</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>kianazamiah</t>
+          <t>ninawasluk</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>davidarceo.zamora</t>
+          <t>jin.yli</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>gabriel_antonio_perez</t>
+          <t>tuhr26</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>hshen004</t>
+          <t>jmmoline14</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>j3r3my.jin</t>
+          <t>valen_tina.gomez</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>hannah_mayyy10</t>
+          <t>holtenneel</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>emilyd184</t>
+          <t>suphabenz</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jillrowley</t>
+          <t>codycopponex</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>lorigutmann</t>
+          <t>lindaa.sofiaa03</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>v.a.le.rie</t>
+          <t>alisunshinegr</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>josefinaestrada1</t>
+          <t>_sophiealmeida</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>johnmartinez_bc</t>
+          <t>ohmpatel101804</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>nataliee.s</t>
+          <t>rharshil77</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mindywoo2002</t>
+          <t>amy_roxana20</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>anjali_emandi</t>
+          <t>egorovajulia77</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>stevendangkhoi</t>
+          <t>lorigutmann</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lil_yivvy28</t>
+          <t>chelsey_chambers</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>christenmichelle</t>
+          <t>ethanguay</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>alexmunozzz_</t>
+          <t>iten_david</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>edward_lin_1007</t>
+          <t>raffibertello</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>bilal.abouz</t>
+          <t>a_stone05</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cheryl_manhattan35</t>
+          <t>josefinaestrada1</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>saloalmeida_</t>
+          <t>ufshca</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>taylarosenthal</t>
+          <t>dqdestinyy</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>99charlot</t>
+          <t>sushmanth_chowdary</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>jeetpatel017</t>
+          <t>joaniross</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>nataliac435</t>
+          <t>mindywoo2002</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>hotsmartcoolgirl</t>
+          <t>michaelb_3000</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>danghanem</t>
+          <t>christenmichelle</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>elvin.hzz</t>
+          <t>amber.syy</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>sonysonny2</t>
+          <t>harrelsonflish</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>carleylanea</t>
+          <t>dkline048</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>isabella_ww2</t>
+          <t>helana.davey</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ufington</t>
+          <t>kierstenttaylor</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>pokoshiki</t>
+          <t>sofiavgodoy</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>big_rich03</t>
+          <t>meghan.mjm</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>lucaslattanzio0</t>
+          <t>_clarissavega</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>emma_ronck</t>
+          <t>juliarvega</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>alejandro_peche</t>
+          <t>juliaarose._</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>_sdanniel_</t>
+          <t>lulugonzalez2411</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>addison.513</t>
+          <t>bennyleonee</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,10 +3638,520 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>holtenneel</t>
+          <t>_allisonmanning</t>
         </is>
       </c>
       <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>yoongisazucar</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>kurt.golden18</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>yeenis__</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>acp_6</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>pereira.elijah</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>sladeferguson</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>sophieetorres</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>aanya.patel_</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>sophiapalmeiro</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>anawillsonp</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>brysons05</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>susanmcinnis</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>jibruabdi</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>jonahfredell1</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>sophia_keane_</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>kreg_18</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>brookee.madison_</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>chloewagsbehindthescenes</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>maddiedalman._</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>vendelabyers</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>laragrandii_</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>brycegunns</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>pat.macie</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>mhe_mat1</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>dorianholt.04</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>karyna.fedorova</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>catalinacachin</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>spencer.payne22</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>benrivas05</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>lucia.noelle.gonz</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>karrph2021</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>dani.kayyy</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>real_living_florida_</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>anastasia_lobanov</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>bindukan1</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>sydnee_grantham</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>alyssaguzman__</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>sofiia_romao</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>stephy.627</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>dylandaley11</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>austin.metzger_</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>jakobgerard27</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>jimmy.rooney18</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>savannah__braun</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>aka_marinka</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ceilidoyle</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>daniel_swen</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>andria.glz</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>vanessa.wojo</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>al_lef77</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>cindy_michelle</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
         <v>0</v>
       </c>
     </row>
